--- a/primary_data/sna_country_data/URY/cei.xlsx
+++ b/primary_data/sna_country_data/URY/cei.xlsx
@@ -11,13 +11,15 @@
     <sheet name="2017" sheetId="3" r:id="rId5"/>
     <sheet name="2018" sheetId="4" r:id="rId6"/>
     <sheet name="2019" sheetId="5" r:id="rId7"/>
+    <sheet name="2020" sheetId="6" r:id="rId8"/>
+    <sheet name="2021" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9840" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11562" uniqueCount="1735">
   <si>
     <t>code</t>
   </si>
@@ -245,6 +247,4983 @@
   </si>
   <si>
     <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
   </si>
 </sst>
 </file>
@@ -295,36 +5274,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1182</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>1219</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>1255</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>1256</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>1257</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>1258</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>1259</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>1183</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>1220</v>
       </c>
       <c r="C2" s="1">
         <v>-35345.263380289784</v>
@@ -339,10 +5318,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1184</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>1221</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -361,10 +5340,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1185</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>1222</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -381,10 +5360,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>1186</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>1223</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -401,10 +5380,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>1187</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>1224</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -417,10 +5396,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>1188</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>1225</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -437,10 +5416,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>1189</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>1226</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -455,10 +5434,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>1190</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>1226</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -471,10 +5450,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>1191</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>1227</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -489,10 +5468,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>1192</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>1228</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -507,10 +5486,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>1193</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>1229</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -529,10 +5508,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>1194</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>1230</v>
       </c>
       <c r="C13" s="1">
         <v>105254.84066842961</v>
@@ -555,10 +5534,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>1195</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>1231</v>
       </c>
       <c r="C14" s="1">
         <v>20118.629433262511</v>
@@ -581,10 +5560,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>1196</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>1232</v>
       </c>
       <c r="C15" s="1">
         <v>85136.211235167109</v>
@@ -607,10 +5586,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>1197</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>1233</v>
       </c>
       <c r="C16" s="1">
         <v>77979.086634604173</v>
@@ -633,10 +5612,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>1198</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>1234</v>
       </c>
       <c r="C17" s="1">
         <v>708.07373372999996</v>
@@ -657,10 +5636,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>1199</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>1235</v>
       </c>
       <c r="C18" s="1">
         <v>708.07373372999996</v>
@@ -677,10 +5656,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>1200</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>1236</v>
       </c>
       <c r="C19" s="1">
         <v>2128.9819248528388</v>
@@ -703,10 +5682,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>1201</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>1237</v>
       </c>
       <c r="C20" s="1">
         <v>610.943299077402</v>
@@ -723,10 +5702,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>1202</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>1238</v>
       </c>
       <c r="C21" s="1">
         <v>476.41603700000002</v>
@@ -745,10 +5724,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>1203</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>1239</v>
       </c>
       <c r="C22" s="1">
         <v>1041.622588775437</v>
@@ -771,10 +5750,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>1204</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>1240</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
@@ -791,10 +5770,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>1205</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>1241</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
@@ -811,10 +5790,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>1206</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>1242</v>
       </c>
       <c r="C25" s="1">
         <v>75685.254770642801</v>
@@ -837,10 +5816,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>1207</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>1243</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -855,10 +5834,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>1208</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>1244</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -877,10 +5856,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>1209</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>1245</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -895,10 +5874,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>1210</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>1246</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -917,10 +5896,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>1211</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>1247</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -935,10 +5914,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>1212</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>1248</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -957,10 +5936,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>1213</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>1249</v>
       </c>
       <c r="C32" s="1">
         <v>40339.991390353032</v>
@@ -975,10 +5954,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>1214</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>1250</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
@@ -999,10 +5978,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>1215</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>1251</v>
       </c>
       <c r="C34" s="1">
         <v>37886.776197581872</v>
@@ -1020,15 +5999,15 @@
         <v>25446.753598644718</v>
       </c>
       <c r="H34" s="1">
-        <v>25446.753598644718</v>
+        <v>25446.753598644849</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>1215</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>1251</v>
       </c>
       <c r="C35" s="1">
         <v>37886.776197581872</v>
@@ -1046,31 +6025,33 @@
         <v>25446.753598644849</v>
       </c>
       <c r="H35" s="1">
-        <v>25446.753598644849</v>
+        <v>25446.753598644718</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>1216</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>1252</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>926.5806651800001</v>
+        <v>113976.0975413</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1">
+        <v>137582.86030768359</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>1217</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>1253</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1085,21 +6066,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>1218</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>1254</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>113976.0975413</v>
+        <v>926.5806651800001</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1">
-        <v>137582.86030768359</v>
-      </c>
+      <c r="H38" s="1"/>
     </row>
   </sheetData>
 </worksheet>
@@ -1112,36 +6091,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1261</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>1298</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>1334</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>1335</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>1336</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>1337</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>1338</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>1262</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>1299</v>
       </c>
       <c r="C2" s="1">
         <v>-92111.334701685584</v>
@@ -1156,10 +6135,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1263</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>1300</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1178,10 +6157,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1264</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>1301</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1198,10 +6177,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>1265</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>1302</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1218,10 +6197,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>1266</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>1303</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1234,10 +6213,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>1267</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>1304</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1254,10 +6233,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>1268</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>1305</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1270,10 +6249,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>1269</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>1305</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1286,10 +6265,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>1270</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>1306</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1302,10 +6281,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>1271</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>1307</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1320,10 +6299,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>1272</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>1308</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1342,10 +6321,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>1273</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>1309</v>
       </c>
       <c r="C13" s="1">
         <v>111912.2883479437</v>
@@ -1368,10 +6347,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>1274</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>1310</v>
       </c>
       <c r="C14" s="1">
         <v>37196.900831416431</v>
@@ -1394,10 +6373,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>1275</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>1311</v>
       </c>
       <c r="C15" s="1">
         <v>74715.387516527291</v>
@@ -1420,10 +6399,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>1276</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>1312</v>
       </c>
       <c r="C16" s="1">
         <v>81203.449470399617</v>
@@ -1446,10 +6425,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>1277</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>1313</v>
       </c>
       <c r="C17" s="1">
         <v>1114.5240200000001</v>
@@ -1470,10 +6449,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>1278</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>1314</v>
       </c>
       <c r="C18" s="1">
         <v>1114.5240200000001</v>
@@ -1492,10 +6471,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>1279</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>1315</v>
       </c>
       <c r="C19" s="1">
         <v>17219.038211090661</v>
@@ -1518,10 +6497,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>1280</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>1316</v>
       </c>
       <c r="C20" s="1">
         <v>98.619980999999996</v>
@@ -1540,10 +6519,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>1281</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>1317</v>
       </c>
       <c r="C21" s="1">
         <v>1657.9772827899999</v>
@@ -1560,10 +6539,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>1282</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>1318</v>
       </c>
       <c r="C22" s="1">
         <v>1009.104553</v>
@@ -1582,10 +6561,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>1283</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>1319</v>
       </c>
       <c r="C23" s="1">
         <v>14453.336394300661</v>
@@ -1608,10 +6587,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>1284</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>1320</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
@@ -1630,10 +6609,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>1285</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>1321</v>
       </c>
       <c r="C25" s="1">
         <v>79087.001794051394</v>
@@ -1656,10 +6635,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>1286</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>1322</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1674,15 +6653,15 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>1287</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>1323</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
-        <v>-10570.43407502865</v>
+        <v>-10570.434075028639</v>
       </c>
       <c r="F27" s="1">
         <v>-10570.434075028639</v>
@@ -1696,10 +6675,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>1288</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>1324</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1714,10 +6693,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>1289</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>1325</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1736,10 +6715,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>1290</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>1326</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1754,15 +6733,15 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>1291</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>1327</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
-        <v>-10570.434075028639</v>
+        <v>-10570.43407502865</v>
       </c>
       <c r="F31" s="1">
         <v>-10570.43407502865</v>
@@ -1776,10 +6755,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>1292</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>1328</v>
       </c>
       <c r="C32" s="1">
         <v>-13024.332907634191</v>
@@ -1794,10 +6773,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>1293</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>1329</v>
       </c>
       <c r="C33" s="1">
         <v>181.0641172</v>
@@ -1820,10 +6799,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>1294</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>1330</v>
       </c>
       <c r="C34" s="1">
         <v>-14574.43484844782</v>
@@ -1835,10 +6814,10 @@
         <v>-66950.582658753847</v>
       </c>
       <c r="F34" s="1">
-        <v>-66950.582658753861</v>
+        <v>-66950.582658753847</v>
       </c>
       <c r="G34" s="1">
-        <v>55330.055140544697</v>
+        <v>55330.055140544151</v>
       </c>
       <c r="H34" s="1">
         <v>55330.055140544697</v>
@@ -1846,10 +6825,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>1294</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>1330</v>
       </c>
       <c r="C35" s="1">
         <v>-14574.434848447811</v>
@@ -1861,10 +6840,10 @@
         <v>-66950.582658753861</v>
       </c>
       <c r="F35" s="1">
-        <v>-66950.582658753847</v>
+        <v>-66950.582658753861</v>
       </c>
       <c r="G35" s="1">
-        <v>55330.055140544151</v>
+        <v>55330.055140544697</v>
       </c>
       <c r="H35" s="1">
         <v>55330.055140544151</v>
@@ -1872,48 +6851,48 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>1295</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>1331</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>147042.35994689999</v>
-      </c>
-      <c r="F36" s="1">
-        <v>147042.21094677999</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+        <v>181558.9914336357</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1">
+        <v>310.92989817709997</v>
+      </c>
+      <c r="H36" s="1">
+        <v>223683.25268700649</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>1296</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>1332</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>181558.9914336357</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1">
-        <v>310.92989817709997</v>
-      </c>
-      <c r="H37" s="1">
-        <v>223683.25268700649</v>
-      </c>
+        <v>147042.35994689999</v>
+      </c>
+      <c r="F37" s="1">
+        <v>147042.21094677999</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>1297</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>1333</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1935,36 +6914,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1340</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>1377</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>1413</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>1414</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>1415</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>1416</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>1417</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>1341</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>1378</v>
       </c>
       <c r="C2" s="1">
         <v>-102236.23721409201</v>
@@ -1979,10 +6958,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1342</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>1379</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2001,10 +6980,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>1343</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>1380</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2021,10 +7000,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>1344</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>1381</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2037,10 +7016,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>1345</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>1382</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2057,10 +7036,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>1346</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>1383</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2073,10 +7052,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>1347</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>1383</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2089,10 +7068,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>1348</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>1384</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2105,10 +7084,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>1349</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>1385</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2123,10 +7102,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>1350</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>1386</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2145,10 +7124,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>1351</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>1387</v>
       </c>
       <c r="C12" s="1">
         <v>-83.070126027215935</v>
@@ -2167,10 +7146,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>1352</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>1388</v>
       </c>
       <c r="C13" s="1">
         <v>144279.01796396461</v>
@@ -2193,10 +7172,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>1353</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>1389</v>
       </c>
       <c r="C14" s="1">
         <v>32414.538114762661</v>
@@ -2219,10 +7198,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>1354</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>1390</v>
       </c>
       <c r="C15" s="1">
         <v>111864.47984920201</v>
@@ -2243,10 +7222,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>1355</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>1391</v>
       </c>
       <c r="C16" s="1">
         <v>101315.1098362044</v>
@@ -2269,10 +7248,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>1356</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>1392</v>
       </c>
       <c r="C17" s="1">
         <v>526.84154559200761</v>
@@ -2293,10 +7272,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>1357</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>1393</v>
       </c>
       <c r="C18" s="1">
         <v>1300.503467</v>
@@ -2317,10 +7296,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>1358</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>1394</v>
       </c>
       <c r="C19" s="1">
         <v>1300.503467</v>
@@ -2339,10 +7318,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>1359</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>1395</v>
       </c>
       <c r="C20" s="1">
         <v>16387.63379557012</v>
@@ -2365,10 +7344,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>1360</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>1396</v>
       </c>
       <c r="C21" s="1">
         <v>97.490238000000005</v>
@@ -2387,10 +7366,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>1361</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>1397</v>
       </c>
       <c r="C22" s="1">
         <v>1386.9169386399999</v>
@@ -2407,10 +7386,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>1362</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>1398</v>
       </c>
       <c r="C23" s="1">
         <v>1117.864241</v>
@@ -2429,10 +7408,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>1363</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>1399</v>
       </c>
       <c r="C24" s="1">
         <v>13785.36237793012</v>
@@ -2455,10 +7434,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>1364</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>1400</v>
       </c>
       <c r="C25" s="1">
         <v>98850.343655568271</v>
@@ -2481,10 +7460,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>1365</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>1401</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2499,15 +7478,15 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>1366</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>1402</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
-        <v>-25017.388782343201</v>
+        <v>-25017.38878234318</v>
       </c>
       <c r="F27" s="1">
         <v>-25017.388782343201</v>
@@ -2521,10 +7500,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>1367</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>1403</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2539,10 +7518,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>1368</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>1404</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2561,10 +7540,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>1369</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>1405</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2579,15 +7558,15 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>1370</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>1406</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
-        <v>-25017.38878234318</v>
+        <v>-25017.388782343201</v>
       </c>
       <c r="F31" s="1">
         <v>-25017.38878234318</v>
@@ -2601,10 +7580,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>1371</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>1407</v>
       </c>
       <c r="C32" s="1">
         <v>-3385.8935585237782</v>
@@ -2619,10 +7598,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>1372</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>1408</v>
       </c>
       <c r="C33" s="1">
         <v>0.27703699999999998</v>
@@ -2645,10 +7624,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>1373</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>1409</v>
       </c>
       <c r="C34" s="1">
         <v>-4009.0753441289771</v>
@@ -2660,7 +7639,7 @@
         <v>-63565.770979082881</v>
       </c>
       <c r="F34" s="1">
-        <v>-63565.770979082881</v>
+        <v>-63565.818181042087</v>
       </c>
       <c r="G34" s="1">
         <v>43782.161676835007</v>
@@ -2671,10 +7650,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>1373</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>1409</v>
       </c>
       <c r="C35" s="1">
         <v>-4009.0753441289712</v>
@@ -2686,7 +7665,7 @@
         <v>-63565.818181042087</v>
       </c>
       <c r="F35" s="1">
-        <v>-63565.818181042087</v>
+        <v>-63565.770979082881</v>
       </c>
       <c r="G35" s="1">
         <v>43782.161676834643</v>
@@ -2697,26 +7676,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>1374</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>1410</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>1378.685344355712</v>
-      </c>
-      <c r="F36" s="1"/>
+        <v>170013.75605207999</v>
+      </c>
+      <c r="F36" s="1">
+        <v>170013.75605207999</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>1375</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>1411</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2733,19 +7714,17 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>1376</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>1412</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>170013.75605207999</v>
-      </c>
-      <c r="F38" s="1">
-        <v>170013.75605207999</v>
-      </c>
+        <v>1378.685344355712</v>
+      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -2760,36 +7739,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1419</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>1456</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>1492</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>1493</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>1494</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>1495</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>1496</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>1420</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>1457</v>
       </c>
       <c r="C2" s="1">
         <v>-101427.2938489076</v>
@@ -2804,10 +7783,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1421</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>1458</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2826,10 +7805,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>1422</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>1459</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2846,10 +7825,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>1423</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>1460</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2862,10 +7841,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>1424</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>1461</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2882,10 +7861,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>1425</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>1462</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2898,10 +7877,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>1426</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>1462</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2914,10 +7893,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>1427</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>1463</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2930,10 +7909,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>1428</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>1464</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2948,10 +7927,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>1429</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>1465</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2970,10 +7949,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>1430</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>1466</v>
       </c>
       <c r="C12" s="1">
         <v>-92.934358778526615</v>
@@ -2992,10 +7971,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>1431</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>1467</v>
       </c>
       <c r="C13" s="1">
         <v>162249.8021316196</v>
@@ -3018,10 +7997,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>1432</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>1468</v>
       </c>
       <c r="C14" s="1">
         <v>43179.357846405859</v>
@@ -3044,10 +8023,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>1433</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>1469</v>
       </c>
       <c r="C15" s="1">
         <v>119070.4442852137</v>
@@ -3068,10 +8047,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>1434</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>1470</v>
       </c>
       <c r="C16" s="1">
         <v>111072.9372501466</v>
@@ -3094,10 +8073,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>1435</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>1471</v>
       </c>
       <c r="C17" s="1">
         <v>455.25087191519339</v>
@@ -3118,10 +8097,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>1436</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>1472</v>
       </c>
       <c r="C18" s="1">
         <v>1486.8528134281901</v>
@@ -3142,10 +8121,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>1437</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>1473</v>
       </c>
       <c r="C19" s="1">
         <v>1486.8528134281901</v>
@@ -3164,10 +8143,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>1438</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>1474</v>
       </c>
       <c r="C20" s="1">
         <v>19645.88621086465</v>
@@ -3190,10 +8169,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>1439</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>1475</v>
       </c>
       <c r="C21" s="1">
         <v>1.3780870000000001</v>
@@ -3212,10 +8191,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>1440</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>1476</v>
       </c>
       <c r="C22" s="1">
         <v>1680.6084285300001</v>
@@ -3232,10 +8211,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>1441</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>1477</v>
       </c>
       <c r="C23" s="1">
         <v>1167.0419095569939</v>
@@ -3254,10 +8233,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>1442</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>1478</v>
       </c>
       <c r="C24" s="1">
         <v>16796.857785777662</v>
@@ -3280,10 +8259,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>1443</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>1479</v>
       </c>
       <c r="C25" s="1">
         <v>108339.94151571881</v>
@@ -3306,10 +8285,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>1444</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>1480</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3322,10 +8301,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>1445</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>1481</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3344,10 +8323,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>1446</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>1482</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3362,10 +8341,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>1447</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>1483</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3384,10 +8363,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>1448</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>1484</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3400,10 +8379,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>1449</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>1485</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3422,10 +8401,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>1450</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>1486</v>
       </c>
       <c r="C32" s="1">
         <v>6912.6476668112009</v>
@@ -3440,10 +8419,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>1451</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>1487</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
@@ -3464,25 +8443,25 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>1452</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>1488</v>
       </c>
       <c r="C34" s="1">
         <v>5442.5976345336867</v>
       </c>
       <c r="D34" s="1">
-        <v>5442.5976345336967</v>
+        <v>5442.5976345336867</v>
       </c>
       <c r="E34" s="1">
         <v>-49773.892247342999</v>
       </c>
       <c r="F34" s="1">
-        <v>-49773.892247342999</v>
+        <v>-49773.892247343349</v>
       </c>
       <c r="G34" s="1">
-        <v>33283.712597372418</v>
+        <v>33283.712597372112</v>
       </c>
       <c r="H34" s="1">
         <v>33283.712597372418</v>
@@ -3490,25 +8469,25 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>1452</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>1488</v>
       </c>
       <c r="C35" s="1">
         <v>5442.5976345336967</v>
       </c>
       <c r="D35" s="1">
-        <v>5442.5976345336867</v>
+        <v>5442.5976345336967</v>
       </c>
       <c r="E35" s="1">
         <v>-49773.892247343349</v>
       </c>
       <c r="F35" s="1">
-        <v>-49773.892247343349</v>
+        <v>-49773.892247342999</v>
       </c>
       <c r="G35" s="1">
-        <v>33283.712597372112</v>
+        <v>33283.712597372418</v>
       </c>
       <c r="H35" s="1">
         <v>33283.712597372112</v>
@@ -3516,10 +8495,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>1453</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>1489</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -3534,10 +8513,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>1454</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>1490</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3554,10 +8533,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>1455</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>1491</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3579,36 +8558,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1498</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>1535</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>1571</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>1572</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>1573</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>1574</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>1575</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>1499</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>1536</v>
       </c>
       <c r="C2" s="1">
         <v>-132325.81806931089</v>
@@ -3623,10 +8602,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1500</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>1537</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3645,10 +8624,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>1501</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>1538</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3665,10 +8644,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>1502</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>1539</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3681,10 +8660,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>1503</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>1540</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -3701,10 +8680,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>1504</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>1541</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3717,10 +8696,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>1505</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>1541</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3733,10 +8712,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>1506</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>1542</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3749,10 +8728,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>1507</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>1543</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3767,10 +8746,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>1508</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>1544</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3789,10 +8768,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>1509</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>1545</v>
       </c>
       <c r="C12" s="1">
         <v>-111.3731775422125</v>
@@ -3811,10 +8790,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>1510</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>1546</v>
       </c>
       <c r="C13" s="1">
         <v>160506.74429795379</v>
@@ -3837,10 +8816,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>1511</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>1547</v>
       </c>
       <c r="C14" s="1">
         <v>47266.390163401513</v>
@@ -3863,10 +8842,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>1512</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>1548</v>
       </c>
       <c r="C15" s="1">
         <v>113240.3541345523</v>
@@ -3887,10 +8866,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>1513</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>1549</v>
       </c>
       <c r="C16" s="1">
         <v>106078.98298231589</v>
@@ -3913,10 +8892,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>1514</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>1550</v>
       </c>
       <c r="C17" s="1">
         <v>376.90302765656929</v>
@@ -3937,10 +8916,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>1515</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>1551</v>
       </c>
       <c r="C18" s="1">
         <v>1655.657643517555</v>
@@ -3961,10 +8940,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>1516</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>1552</v>
       </c>
       <c r="C19" s="1">
         <v>1655.657643517555</v>
@@ -3983,10 +8962,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>1517</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>1553</v>
       </c>
       <c r="C20" s="1">
         <v>22226.602795191338</v>
@@ -4009,10 +8988,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>1518</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>1554</v>
       </c>
       <c r="C21" s="1">
         <v>2.9676309999999999</v>
@@ -4031,10 +9010,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>1519</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>1555</v>
       </c>
       <c r="C22" s="1">
         <v>2646.0630505200002</v>
@@ -4051,10 +9030,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>1520</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>1556</v>
       </c>
       <c r="C23" s="1">
         <v>1452.5266412882031</v>
@@ -4073,10 +9052,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>1521</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>1557</v>
       </c>
       <c r="C24" s="1">
         <v>18125.045472383139</v>
@@ -4099,10 +9078,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>1522</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>1558</v>
       </c>
       <c r="C25" s="1">
         <v>103687.46021795391</v>
@@ -4125,10 +9104,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>1523</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>1559</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -4141,10 +9120,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>1524</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>1560</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -4163,10 +9142,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>1525</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>1561</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -4181,10 +9160,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>1526</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>1562</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4203,10 +9182,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>1527</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>1563</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4219,10 +9198,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>1528</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>1564</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4241,10 +9220,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>1529</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>1565</v>
       </c>
       <c r="C32" s="1">
         <v>-28638.357851356981</v>
@@ -4259,10 +9238,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>1530</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>1566</v>
       </c>
       <c r="C33" s="1">
         <v>13.58729015431644</v>
@@ -4285,19 +9264,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>1531</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>1567</v>
       </c>
       <c r="C34" s="1">
         <v>-14516.140951382629</v>
       </c>
       <c r="D34" s="1">
-        <v>-14516.140951382629</v>
+        <v>-14516.15048177604</v>
       </c>
       <c r="E34" s="1">
-        <v>-63947.039175030113</v>
+        <v>-63947.039175029808</v>
       </c>
       <c r="F34" s="1">
         <v>-63947.039175030113</v>
@@ -4311,19 +9290,19 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>1531</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>1567</v>
       </c>
       <c r="C35" s="1">
         <v>-14516.15048177604</v>
       </c>
       <c r="D35" s="1">
-        <v>-14516.15048177604</v>
+        <v>-14516.140951382629</v>
       </c>
       <c r="E35" s="1">
-        <v>-63947.039175029808</v>
+        <v>-63947.039175030113</v>
       </c>
       <c r="F35" s="1">
         <v>-63947.039175029808</v>
@@ -4337,33 +9316,850 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>1532</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>1568</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>200663.39336498949</v>
-      </c>
-      <c r="F36" s="1">
-        <v>200663.39336498949</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+        <v>239376.743428952</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1">
+        <v>402.67289956090139</v>
+      </c>
+      <c r="H36" s="1">
+        <v>298520.24294644757</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>1533</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>1569</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
+        <v>200663.39336498949</v>
+      </c>
+      <c r="F37" s="1">
+        <v>200663.39336498949</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1">
         <v>1691.532447066628</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H38"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-104514.67406784389</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-104514.67406784389</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>248943.64208872389</v>
+      </c>
+      <c r="F3" s="1">
+        <v>248943.64208872389</v>
+      </c>
+      <c r="G3" s="1">
+        <v>470818.5045513846</v>
+      </c>
+      <c r="H3" s="1">
+        <v>470818.5045513846</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <v>290515.63883653207</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1589.3641487719749</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>16917.042990926879</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>255855.03423551831</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>34660.604601013787</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1589.3641487719749</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>16917.042990926879</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>-20094.858684111801</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>-3424.6937240000002</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>-16670.164960111801</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>186501.3272761718</v>
+      </c>
+      <c r="H10" s="1">
+        <v>186501.3272761718</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>744.17415905056737</v>
+      </c>
+      <c r="F11" s="1">
+        <v>744.17415905056737</v>
+      </c>
+      <c r="G11" s="1">
+        <v>208793.31727426461</v>
+      </c>
+      <c r="H11" s="1">
+        <v>208793.31727426461</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-149.5741136579793</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>246610.10378090141</v>
+      </c>
+      <c r="G12" s="1">
+        <v>964516.23533725785</v>
+      </c>
+      <c r="H12" s="1">
+        <v>58606.817010021281</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C13" s="1">
+        <v>151856.17438438139</v>
+      </c>
+      <c r="D13" s="1">
+        <v>30555.43229442582</v>
+      </c>
+      <c r="E13" s="1">
+        <v>79370.097059280903</v>
+      </c>
+      <c r="F13" s="1">
+        <v>68905.215310340413</v>
+      </c>
+      <c r="G13" s="1">
+        <v>196071.41583780959</v>
+      </c>
+      <c r="H13" s="1">
+        <v>24681.605703741461</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C14" s="1">
+        <v>54754.723496312057</v>
+      </c>
+      <c r="D14" s="1">
+        <v>33544.679116953143</v>
+      </c>
+      <c r="E14" s="1">
+        <v>11018.02669235646</v>
+      </c>
+      <c r="F14" s="1">
+        <v>68905.215310340413</v>
+      </c>
+      <c r="G14" s="1">
+        <v>18312.725199786091</v>
+      </c>
+      <c r="H14" s="1">
+        <v>24681.605703741461</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C15" s="1">
+        <v>97101.450888069332</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-2989.2468225273192</v>
+      </c>
+      <c r="E15" s="1">
+        <v>68352.070366924439</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
+        <v>177758.69063802349</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C16" s="1">
+        <v>121151.1679762976</v>
+      </c>
+      <c r="D16" s="1">
+        <v>121151.1679762976</v>
+      </c>
+      <c r="E16" s="1">
+        <v>281629.83606041141</v>
+      </c>
+      <c r="F16" s="1">
+        <v>281629.83606041141</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1531200.6900217619</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1531200.6900217619</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C17" s="1">
+        <v>829.94672213900139</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6471.0488226466759</v>
+      </c>
+      <c r="E17" s="1">
+        <v>177143.6583732735</v>
+      </c>
+      <c r="F17" s="1">
+        <v>53.220586556000001</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1">
+        <v>103439.93424494661</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1851.55709250523</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <v>250754.8245620098</v>
+      </c>
+      <c r="F18" s="1">
+        <v>354136.98076916719</v>
+      </c>
+      <c r="G18" s="1">
+        <v>371603.72775322967</v>
+      </c>
+      <c r="H18" s="1">
+        <v>313623.89550054661</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1851.55709250523</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
+        <v>354136.98076916719</v>
+      </c>
+      <c r="G19" s="1">
+        <v>371161.41966917628</v>
+      </c>
+      <c r="H19" s="1">
+        <v>442.30808405340002</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C20" s="1">
+        <v>13110.58352570426</v>
+      </c>
+      <c r="D20" s="1">
+        <v>12660.168619784579</v>
+      </c>
+      <c r="E20" s="1">
+        <v>261006.27914480091</v>
+      </c>
+      <c r="F20" s="1">
+        <v>261258.07254784679</v>
+      </c>
+      <c r="G20" s="1">
+        <v>47158.262679367523</v>
+      </c>
+      <c r="H20" s="1">
+        <v>48339.543750886784</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.421961</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2008.0292188799999</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1">
+        <v>602.00508799464785</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1">
+        <v>6521.2483581013976</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2008.0292188799999</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>848.91206396320899</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1">
+        <v>8013.8274215867395</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C23" s="1">
+        <v>728.95224428820325</v>
+      </c>
+      <c r="D23" s="1">
+        <v>88.157780000000002</v>
+      </c>
+      <c r="E23" s="1">
+        <v>88.157780000000002</v>
+      </c>
+      <c r="F23" s="1">
+        <v>728.95224428820325</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C24" s="1">
+        <v>10372.18010153606</v>
+      </c>
+      <c r="D24" s="1">
+        <v>10563.981620904589</v>
+      </c>
+      <c r="E24" s="1">
+        <v>16195.29706350237</v>
+      </c>
+      <c r="F24" s="1">
+        <v>17678.695071503971</v>
+      </c>
+      <c r="G24" s="1">
+        <v>39144.435257780773</v>
+      </c>
+      <c r="H24" s="1">
+        <v>41818.295392785381</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C25" s="1">
+        <v>117812.0378742148</v>
+      </c>
+      <c r="D25" s="1">
+        <v>117812.0378742148</v>
+      </c>
+      <c r="E25" s="1">
+        <v>355086.32423692557</v>
+      </c>
+      <c r="F25" s="1">
+        <v>355086.32423692557</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1484559.3069579799</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1484559.3069579799</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1">
+        <v>43550.766861969081</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <v>-43451.658659149427</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-43451.658659149427</v>
+      </c>
+      <c r="G27" s="1">
+        <v>153931.3940779226</v>
+      </c>
+      <c r="H27" s="1">
+        <v>153931.3940779226</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1">
+        <v>231638.87160831151</v>
+      </c>
+      <c r="G28" s="1">
+        <v>239321.86905549711</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <v>123447.4526286141</v>
+      </c>
+      <c r="F29" s="1">
+        <v>123447.4526286141</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1723881.1760134769</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1723881.1760134769</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1">
+        <v>43550.766861969081</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
+        <v>-43451.658659149427</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-43451.658659149427</v>
+      </c>
+      <c r="G31" s="1">
+        <v>153931.3940779226</v>
+      </c>
+      <c r="H31" s="1">
+        <v>153931.3940779226</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C32" s="1">
+        <v>13297.36380637088</v>
+      </c>
+      <c r="D32" s="1">
+        <v>13297.36380637088</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1">
+        <v>-3163.35692644855</v>
+      </c>
+      <c r="E33" s="1">
+        <v>18090.690218</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-15357.153292196481</v>
+      </c>
+      <c r="G33" s="1">
+        <v>8670.7725571964856</v>
+      </c>
+      <c r="H33" s="1">
+        <v>-14153.624163</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C34" s="1">
+        <v>10171.468589380889</v>
+      </c>
+      <c r="D34" s="1">
+        <v>10171.459058987501</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-79545.106801385089</v>
+      </c>
+      <c r="F34" s="1">
+        <v>-79545.106801385089</v>
+      </c>
+      <c r="G34" s="1">
+        <v>66058.729479423899</v>
+      </c>
+      <c r="H34" s="1">
+        <v>66059.10105946564</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C35" s="1">
+        <v>10171.459058987501</v>
+      </c>
+      <c r="D35" s="1">
+        <v>10171.468589380889</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-79545.106801385089</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-79545.106801385089</v>
+      </c>
+      <c r="G35" s="1">
+        <v>66059.10105946564</v>
+      </c>
+      <c r="H35" s="1">
+        <v>66058.729479423899</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1">
+        <v>242248.42014405999</v>
+      </c>
+      <c r="F36" s="1">
+        <v>242248.42014405999</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1">
+        <v>1625.492093275358</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -4371,22 +10167,841 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>1613</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>1649</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>239376.743428952</v>
+        <v>250754.8245620098</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1">
-        <v>402.67289956090139</v>
+        <v>442.30808405340002</v>
       </c>
       <c r="H38" s="1">
-        <v>298520.24294644757</v>
+        <v>313181.58741649322</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H38"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-200371.3593658637</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-200371.3593658637</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>264191.99060634093</v>
+      </c>
+      <c r="F3" s="1">
+        <v>264191.99060634093</v>
+      </c>
+      <c r="G3" s="1">
+        <v>501754.2312573535</v>
+      </c>
+      <c r="H3" s="1">
+        <v>501754.2312573535</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <v>336400.38718717668</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1662.9687562544871</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>18516.856554910399</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>298692.07167320402</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>37708.31551397279</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1662.9687562544871</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>18516.856554910399</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>-21256.196209999998</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>-3607.1962100000001</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>-17649</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>198016.23387617839</v>
+      </c>
+      <c r="H10" s="1">
+        <v>198016.23387617839</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>864.630246243599</v>
+      </c>
+      <c r="F11" s="1">
+        <v>864.630246243599</v>
+      </c>
+      <c r="G11" s="1">
+        <v>222382.5264923693</v>
+      </c>
+      <c r="H11" s="1">
+        <v>222382.5264923693</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-155.06439238415939</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>261664.39160384281</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1051958.579323407</v>
+      </c>
+      <c r="H12" s="1">
+        <v>62838.614333895377</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C13" s="1">
+        <v>314231.27904663578</v>
+      </c>
+      <c r="D13" s="1">
+        <v>48491.039627563499</v>
+      </c>
+      <c r="E13" s="1">
+        <v>77992.283715817306</v>
+      </c>
+      <c r="F13" s="1">
+        <v>72672.959190910158</v>
+      </c>
+      <c r="G13" s="1">
+        <v>228007.94010357111</v>
+      </c>
+      <c r="H13" s="1">
+        <v>24065.71765295729</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C14" s="1">
+        <v>51456.424245716291</v>
+      </c>
+      <c r="D14" s="1">
+        <v>25720.518587558981</v>
+      </c>
+      <c r="E14" s="1">
+        <v>12240.36810384845</v>
+      </c>
+      <c r="F14" s="1">
+        <v>72672.959190910158</v>
+      </c>
+      <c r="G14" s="1">
+        <v>18222.007736500102</v>
+      </c>
+      <c r="H14" s="1">
+        <v>24065.71765295729</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C15" s="1">
+        <v>262774.85480091948</v>
+      </c>
+      <c r="D15" s="1">
+        <v>22770.521040004522</v>
+      </c>
+      <c r="E15" s="1">
+        <v>65751.915611968856</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
+        <v>209785.93236707099</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C16" s="1">
+        <v>265585.17502668808</v>
+      </c>
+      <c r="D16" s="1">
+        <v>265585.17502668808</v>
+      </c>
+      <c r="E16" s="1">
+        <v>321328.14574832749</v>
+      </c>
+      <c r="F16" s="1">
+        <v>321328.14574832749</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1676299.5621425679</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1676299.5621425679</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1300.758691809164</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8464.0095581612786</v>
+      </c>
+      <c r="E17" s="1">
+        <v>197849.96173044899</v>
+      </c>
+      <c r="F17" s="1">
+        <v>17.659803556</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1">
+        <v>112319.3970110997</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2035.2769079008131</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <v>272538.25067318691</v>
+      </c>
+      <c r="F18" s="1">
+        <v>378244.16283277201</v>
+      </c>
+      <c r="G18" s="1">
+        <v>399176.57784388593</v>
+      </c>
+      <c r="H18" s="1">
+        <v>336198.25983588898</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2035.2769079008131</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
+        <v>378244.16283277201</v>
+      </c>
+      <c r="G19" s="1">
+        <v>398720.17342767422</v>
+      </c>
+      <c r="H19" s="1">
+        <v>456.40441621169998</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C20" s="1">
+        <v>13142.94333128056</v>
+      </c>
+      <c r="D20" s="1">
+        <v>11223.393284713609</v>
+      </c>
+      <c r="E20" s="1">
+        <v>285633.72307077801</v>
+      </c>
+      <c r="F20" s="1">
+        <v>287310.09786391503</v>
+      </c>
+      <c r="G20" s="1">
+        <v>51411.548162021252</v>
+      </c>
+      <c r="H20" s="1">
+        <v>53379.746286008769</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.218183</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1687.2726680000001</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1">
+        <v>553.4994814043755</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1">
+        <v>6355.7575124384803</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1687.2726680000001</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>546.41588891661229</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1">
+        <v>7100.7972621620174</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2336.210388476667</v>
+      </c>
+      <c r="D23" s="1">
+        <v>67.359874000000019</v>
+      </c>
+      <c r="E23" s="1">
+        <v>67.359874000000005</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2336.210388476667</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C24" s="1">
+        <v>9118.2420918038915</v>
+      </c>
+      <c r="D24" s="1">
+        <v>9468.7607427136081</v>
+      </c>
+      <c r="E24" s="1">
+        <v>18553.952676552359</v>
+      </c>
+      <c r="F24" s="1">
+        <v>19845.866366514001</v>
+      </c>
+      <c r="G24" s="1">
+        <v>44310.750899859238</v>
+      </c>
+      <c r="H24" s="1">
+        <v>47023.988773570287</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C25" s="1">
+        <v>262376.75111480377</v>
+      </c>
+      <c r="D25" s="1">
+        <v>262376.75111480377</v>
+      </c>
+      <c r="E25" s="1">
+        <v>411778.16072249837</v>
+      </c>
+      <c r="F25" s="1">
+        <v>411778.16072249837</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1624990.285015478</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1624990.285015478</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1">
+        <v>40692.357243687373</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <v>-25100.989231280721</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-25100.98923128075</v>
+      </c>
+      <c r="G27" s="1">
+        <v>147140.71535390709</v>
+      </c>
+      <c r="H27" s="1">
+        <v>147140.71535390709</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1">
+        <v>257299.2726750664</v>
+      </c>
+      <c r="G28" s="1">
+        <v>265583.73588885192</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <v>154478.888047432</v>
+      </c>
+      <c r="F29" s="1">
+        <v>154478.888047432</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1890574.0209043301</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1890574.0209043301</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1">
+        <v>40692.357243687373</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
+        <v>-25100.98923128075</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-25100.989231280721</v>
+      </c>
+      <c r="G31" s="1">
+        <v>147140.71535390709</v>
+      </c>
+      <c r="H31" s="1">
+        <v>147140.71535390709</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C32" s="1">
+        <v>62005.391748940048</v>
+      </c>
+      <c r="D32" s="1">
+        <v>62005.391748940048</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C33" s="1">
+        <v>86.331224277060215</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-588.75960404294335</v>
+      </c>
+      <c r="E33" s="1">
+        <v>12747.614373</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-16666.700353216482</v>
+      </c>
+      <c r="G33" s="1">
+        <v>9842.7329942164833</v>
+      </c>
+      <c r="H33" s="1">
+        <v>-8521.0363039999993</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C34" s="1">
+        <v>63134.524836636163</v>
+      </c>
+      <c r="D34" s="1">
+        <v>63134.515306242713</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-60032.164387225363</v>
+      </c>
+      <c r="F34" s="1">
+        <v>-60032.164387225363</v>
+      </c>
+      <c r="G34" s="1">
+        <v>50492.474199902237</v>
+      </c>
+      <c r="H34" s="1">
+        <v>50492.474199901873</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C35" s="1">
+        <v>63134.515306242713</v>
+      </c>
+      <c r="D35" s="1">
+        <v>63134.524836636163</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-60032.164387225363</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-60032.164387225363</v>
+      </c>
+      <c r="G35" s="1">
+        <v>50492.474199901873</v>
+      </c>
+      <c r="H35" s="1">
+        <v>50492.474199902237</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1">
+        <v>264574.52162751998</v>
+      </c>
+      <c r="F36" s="1">
+        <v>264574.52162751998</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1">
+        <v>1891.473003789004</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1">
+        <v>272538.25067318691</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1">
+        <v>456.40441621169998</v>
+      </c>
+      <c r="H38" s="1">
+        <v>335741.85541967727</v>
       </c>
     </row>
   </sheetData>
